--- a/CVOE/1 Analysis/YA Output 9_24.xlsx
+++ b/CVOE/1 Analysis/YA Output 9_24.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\Spring-2019-Projects\CVOE\1 Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Spring-2019-Projects\CVOE\1 Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{77531BA1-39CB-42CB-87A8-3B887012E72A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE29CD4-7ACB-4275-A9CF-603714275D0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
     <sheet name="RTS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,17 +957,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1035,7 +1055,7 @@
         <v>-6.7476383265856503E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1073,7 +1093,7 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1111,7 +1131,7 @@
         <v>0.13095238095238099</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1149,7 +1169,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1187,7 +1207,7 @@
         <v>3.2485875706214799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1225,7 +1245,7 @@
         <v>-1.72413793103449E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1263,7 +1283,7 @@
         <v>-1.18941421349983E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1301,7 +1321,7 @@
         <v>-1.6949152542372801E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1339,7 +1359,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1377,7 +1397,7 @@
         <v>2.27272727272727E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1415,7 +1435,7 @@
         <v>-1.72413793103449E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1453,7 +1473,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1491,7 +1511,7 @@
         <v>1.63934426229508E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1529,7 +1549,7 @@
         <v>3.1323185011709602E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1567,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1605,7 +1625,7 @@
         <v>0.109090909090909</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1643,7 +1663,7 @@
         <v>7.8575466365178107E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1681,7 +1701,7 @@
         <v>-1.8390804597701101E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1719,7 +1739,7 @@
         <v>1.5837732703528801E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1757,7 +1777,7 @@
         <v>5.4545454545454598E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1795,7 +1815,7 @@
         <v>-0.102806335093081</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1833,7 +1853,7 @@
         <v>1.6267942583732101E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1871,7 +1891,7 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1909,7 +1929,7 @@
         <v>1.55455059355568E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1947,7 +1967,7 @@
         <v>1.6949152542372801E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1985,7 +2005,7 @@
         <v>4.8870056497175102E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2023,7 +2043,7 @@
         <v>6.6091954022988494E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2061,7 +2081,7 @@
         <v>3.5087719298245598E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2099,7 +2119,7 @@
         <v>-1.75438596491229E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
@@ -2137,7 +2157,7 @@
         <v>8.1967213114754106E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>35</v>
       </c>
@@ -2175,7 +2195,7 @@
         <v>1.63934426229508E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -2213,7 +2233,7 @@
         <v>-1.7683595177201299E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
@@ -2251,7 +2271,7 @@
         <v>3.4655371582595199E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>38</v>
       </c>
@@ -2289,7 +2309,7 @@
         <v>3.1675465407057499E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>39</v>
       </c>
@@ -2327,7 +2347,7 @@
         <v>1.47263128646846E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40</v>
       </c>
@@ -2365,7 +2385,7 @@
         <v>3.2231175326479698E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>41</v>
       </c>
@@ -2403,7 +2423,7 @@
         <v>2.1763708309779601E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
@@ -2441,7 +2461,7 @@
         <v>3.1675465407057499E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
@@ -2479,7 +2499,7 @@
         <v>-2.7444253859347798E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
@@ -2517,7 +2537,7 @@
         <v>1.4697569248162901E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>46</v>
       </c>
@@ -2555,7 +2575,7 @@
         <v>3.2729398012857902E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
@@ -2593,7 +2613,7 @@
         <v>3.3898305084745797E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>49</v>
       </c>
@@ -2631,7 +2651,7 @@
         <v>7.5020839121977502E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50</v>
       </c>
@@ -2669,7 +2689,7 @@
         <v>-5.1403167546540701E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>51</v>
       </c>
@@ -2707,7 +2727,7 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
@@ -2745,7 +2765,7 @@
         <v>4.1400388996943503E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>53</v>
       </c>
@@ -2783,7 +2803,7 @@
         <v>-1.72413793103443E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>54</v>
       </c>
@@ -2821,7 +2841,7 @@
         <v>4.8624617949430397E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -2859,7 +2879,7 @@
         <v>3.5714285714285698E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -2897,7 +2917,7 @@
         <v>3.1675465407057499E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -2935,7 +2955,7 @@
         <v>1.3614893025840499E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -2973,7 +2993,7 @@
         <v>3.1979533098816702E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>59</v>
       </c>
@@ -3011,7 +3031,7 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>60</v>
       </c>
@@ -3049,7 +3069,7 @@
         <v>1.1392053348152201E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>61</v>
       </c>
@@ -3087,7 +3107,7 @@
         <v>1.63934426229508E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>62</v>
       </c>
@@ -3125,7 +3145,7 @@
         <v>-8.4793668739402395E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>63</v>
       </c>
@@ -3163,7 +3183,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>64</v>
       </c>
@@ -3201,7 +3221,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -3239,7 +3259,7 @@
         <v>1.21537591859808E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -3288,7 +3308,7 @@
         <v>2.3609553009089998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -3337,7 +3357,7 @@
         <v>3.5056238482977474E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -3386,7 +3406,7 @@
         <v>4.5639335111828869E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
@@ -3435,7 +3455,7 @@
         <v>8.9453096819184577E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -3484,7 +3504,7 @@
         <v>3.2554862691008456E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -3540,17 +3560,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3588,7 +3620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3626,7 +3658,7 @@
         <v>328.448506289308</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3664,7 +3696,7 @@
         <v>106.090005844535</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3702,7 +3734,7 @@
         <v>198.053333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3740,7 +3772,7 @@
         <v>147.957334891876</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3778,7 +3810,7 @@
         <v>35.203246753247001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3816,7 +3848,7 @@
         <v>421.439258523668</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3854,7 +3886,7 @@
         <v>333.81307814991999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3892,7 +3924,7 @@
         <v>121.049745618994</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3930,7 +3962,7 @@
         <v>17.694915254237198</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3968,7 +4000,7 @@
         <v>360.568313953489</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4006,7 +4038,7 @@
         <v>84.021570319240695</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4044,7 +4076,7 @@
         <v>193.08771929824599</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4082,7 +4114,7 @@
         <v>160.207471264368</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4120,7 +4152,7 @@
         <v>173.90658307210001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4158,7 +4190,7 @@
         <v>335.54093023255803</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4196,7 +4228,7 @@
         <v>504.24678760392999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -4234,7 +4266,7 @@
         <v>30.5477207977208</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -4272,7 +4304,7 @@
         <v>137.339184952978</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -4310,7 +4342,7 @@
         <v>106.282583284629</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -4348,7 +4380,7 @@
         <v>122.990215924426</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -4386,7 +4418,7 @@
         <v>168.12130275839101</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -4424,7 +4456,7 @@
         <v>230.58280922431899</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -4462,7 +4494,7 @@
         <v>20.481005260081901</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -4500,7 +4532,7 @@
         <v>388.41748438893802</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -4538,7 +4570,7 @@
         <v>148.971485411141</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -4576,7 +4608,7 @@
         <v>387.915951972556</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -4614,7 +4646,7 @@
         <v>166.41499202551799</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -4652,7 +4684,7 @@
         <v>174.90519480519501</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -4690,7 +4722,7 @@
         <v>267.49765807962501</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
@@ -4728,7 +4760,7 @@
         <v>8.3746973365616704</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>35</v>
       </c>
@@ -4766,7 +4798,7 @@
         <v>104.945762711865</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36</v>
       </c>
@@ -4804,7 +4836,7 @@
         <v>280.90829297820801</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
@@ -4842,7 +4874,7 @@
         <v>314.79418150238803</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>38</v>
       </c>
@@ -4880,7 +4912,7 @@
         <v>237.49122807017599</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>39</v>
       </c>
@@ -4918,7 +4950,7 @@
         <v>19.2559523809525</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40</v>
       </c>
@@ -4956,7 +4988,7 @@
         <v>-89.086206896551602</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>41</v>
       </c>
@@ -4994,7 +5026,7 @@
         <v>192.749758454106</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
@@ -5032,7 +5064,7 @@
         <v>43.8070175438597</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
@@ -5070,7 +5102,7 @@
         <v>204.36654661864699</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
@@ -5108,7 +5140,7 @@
         <v>-56.082512315270897</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>46</v>
       </c>
@@ -5146,7 +5178,7 @@
         <v>103.329489867226</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
@@ -5184,7 +5216,7 @@
         <v>-84.121305418719203</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>49</v>
       </c>
@@ -5222,7 +5254,7 @@
         <v>-105.618921775898</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50</v>
       </c>
@@ -5260,7 +5292,7 @@
         <v>24.519696969697002</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>51</v>
       </c>
@@ -5298,7 +5330,7 @@
         <v>227.28053769725301</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
@@ -5336,7 +5368,7 @@
         <v>-19.221212121212101</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>53</v>
       </c>
@@ -5374,7 +5406,7 @@
         <v>115.224880382775</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>54</v>
       </c>
@@ -5412,7 +5444,7 @@
         <v>79.422262552933901</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -5450,7 +5482,7 @@
         <v>362.506666666667</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -5488,7 +5520,7 @@
         <v>232.45614035087701</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -5526,7 +5558,7 @@
         <v>-9.8949494949493992</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -5564,7 +5596,7 @@
         <v>451.14697802197799</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>59</v>
       </c>
@@ -5602,7 +5634,7 @@
         <v>51.310344827586299</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>60</v>
       </c>
@@ -5640,7 +5672,7 @@
         <v>150.42117647058799</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>61</v>
       </c>
@@ -5678,7 +5710,7 @@
         <v>76.481920903954702</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>62</v>
       </c>
@@ -5716,7 +5748,7 @@
         <v>52.968421052631598</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>63</v>
       </c>
@@ -5754,7 +5786,7 @@
         <v>71.593220338983102</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>64</v>
       </c>
@@ -5792,7 +5824,7 @@
         <v>232.48246639392201</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -5830,7 +5862,7 @@
         <v>290.55883361921099</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -5879,7 +5911,7 @@
         <v>157.68291243723797</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -5928,7 +5960,7 @@
         <v>141.60879476104293</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -5977,7 +6009,7 @@
         <v>18.435894775247178</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -6026,7 +6058,7 @@
         <v>36.134353759484469</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
@@ -6075,7 +6107,7 @@
         <v>193.81726619672244</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
